--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.8300974551949</v>
+        <v>321.9882987229168</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.9265698565659</v>
+        <v>440.5585954338883</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.9490165229029</v>
+        <v>398.5123014135494</v>
       </c>
       <c r="AD2" t="n">
-        <v>290830.0974551949</v>
+        <v>321988.2987229168</v>
       </c>
       <c r="AE2" t="n">
-        <v>397926.569856566</v>
+        <v>440558.5954338883</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299905750172006e-06</v>
+        <v>5.578654399453031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.140277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>359949.0165229029</v>
+        <v>398512.3014135494</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.5599869490437</v>
+        <v>135.2183631576129</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.7460281735428</v>
+        <v>185.0117298853291</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.7864072391351</v>
+        <v>167.354470050719</v>
       </c>
       <c r="AD3" t="n">
-        <v>114559.9869490437</v>
+        <v>135218.3631576129</v>
       </c>
       <c r="AE3" t="n">
-        <v>156746.0281735428</v>
+        <v>185011.7298853291</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.001685347571899e-06</v>
+        <v>1.014614686089734e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.376388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>141786.4072391351</v>
+        <v>167354.470050719</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.41333233123562</v>
+        <v>110.1569598858254</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.3392659333703</v>
+        <v>150.7216122978058</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.6633780969597</v>
+        <v>136.3369531592558</v>
       </c>
       <c r="AD4" t="n">
-        <v>89413.33233123562</v>
+        <v>110156.9598858254</v>
       </c>
       <c r="AE4" t="n">
-        <v>122339.2659333703</v>
+        <v>150721.6122978058</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.800986125873951e-06</v>
+        <v>1.14974044848851e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.979166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>110663.3780969597</v>
+        <v>136336.9531592558</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.069460525889</v>
+        <v>103.8130880804787</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.6593006574277</v>
+        <v>142.0416470218632</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.8118165245425</v>
+        <v>128.4853915868386</v>
       </c>
       <c r="AD5" t="n">
-        <v>83069.46052588899</v>
+        <v>103813.0880804787</v>
       </c>
       <c r="AE5" t="n">
-        <v>113659.3006574277</v>
+        <v>142041.6470218632</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.2134014024317e-06</v>
+        <v>1.219461297238526e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.808333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>102811.8165245425</v>
+        <v>128485.3915868386</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>79.83615504059105</v>
+        <v>100.5797825951808</v>
       </c>
       <c r="AB6" t="n">
-        <v>109.2353494490745</v>
+        <v>137.61769581351</v>
       </c>
       <c r="AC6" t="n">
-        <v>98.81008101045862</v>
+        <v>124.4836560727547</v>
       </c>
       <c r="AD6" t="n">
-        <v>79836.15504059105</v>
+        <v>100579.7825951808</v>
       </c>
       <c r="AE6" t="n">
-        <v>109235.3494490745</v>
+        <v>137617.69581351</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.415888987809185e-06</v>
+        <v>1.253692828213065e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.731944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>98810.08101045861</v>
+        <v>124483.6560727547</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.60331572097235</v>
+        <v>85.10314078012465</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.0755478353981</v>
+        <v>116.4418717009123</v>
       </c>
       <c r="AC7" t="n">
-        <v>92.33360081394447</v>
+        <v>105.3288228930008</v>
       </c>
       <c r="AD7" t="n">
-        <v>74603.31572097234</v>
+        <v>85103.14078012465</v>
       </c>
       <c r="AE7" t="n">
-        <v>102075.5478353981</v>
+        <v>116441.8717009123</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.758863276874367e-06</v>
+        <v>1.311674333487664e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.611111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>92333.60081394447</v>
+        <v>105328.8228930008</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>71.41200838660187</v>
+        <v>81.91183344575417</v>
       </c>
       <c r="AB8" t="n">
-        <v>97.70906034997149</v>
+        <v>112.0753842154857</v>
       </c>
       <c r="AC8" t="n">
-        <v>88.38384476572193</v>
+        <v>101.3790668447782</v>
       </c>
       <c r="AD8" t="n">
-        <v>71412.00838660187</v>
+        <v>81911.83344575416</v>
       </c>
       <c r="AE8" t="n">
-        <v>97709.06034997149</v>
+        <v>112075.3842154857</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.941364695683614e-06</v>
+        <v>1.342527103840076e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.551388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>88383.84476572194</v>
+        <v>101379.0668447782</v>
       </c>
     </row>
     <row r="9">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>70.16755193257113</v>
+        <v>80.66737699172343</v>
       </c>
       <c r="AB9" t="n">
-        <v>96.0063401280235</v>
+        <v>110.3726639935377</v>
       </c>
       <c r="AC9" t="n">
-        <v>86.84362977197327</v>
+        <v>99.83885185102956</v>
       </c>
       <c r="AD9" t="n">
-        <v>70167.55193257114</v>
+        <v>80667.37699172343</v>
       </c>
       <c r="AE9" t="n">
-        <v>96006.3401280235</v>
+        <v>110372.6639935377</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.001469079815836e-06</v>
+        <v>1.352688048192749e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.531944444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>86843.62977197327</v>
+        <v>99838.85185102955</v>
       </c>
     </row>
     <row r="10">
@@ -3825,28 +3825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>70.3473703388088</v>
+        <v>80.8471953979611</v>
       </c>
       <c r="AB10" t="n">
-        <v>96.25237560446595</v>
+        <v>110.6186994699801</v>
       </c>
       <c r="AC10" t="n">
-        <v>87.0661839678571</v>
+        <v>100.0614060469134</v>
       </c>
       <c r="AD10" t="n">
-        <v>70347.3703388088</v>
+        <v>80847.1953979611</v>
       </c>
       <c r="AE10" t="n">
-        <v>96252.37560446595</v>
+        <v>110618.6994699801</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.004094999510933e-06</v>
+        <v>1.353131972946022e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.531944444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>87066.1839678571</v>
+        <v>100061.4060469134</v>
       </c>
     </row>
   </sheetData>
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.329867211043</v>
+        <v>210.5162298880514</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.7352799103003</v>
+        <v>288.0375930532952</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.1872110908732</v>
+        <v>260.5476894356743</v>
       </c>
       <c r="AD2" t="n">
-        <v>180329.867211043</v>
+        <v>210516.2298880514</v>
       </c>
       <c r="AE2" t="n">
-        <v>246735.2799103003</v>
+        <v>288037.5930532952</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.319802387009568e-06</v>
+        <v>7.480994927927176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.852777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>223187.2110908732</v>
+        <v>260547.6894356743</v>
       </c>
     </row>
     <row r="3">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.3578019672698</v>
+        <v>114.4484593196808</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.786948592851</v>
+        <v>156.5934311507968</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.1595626219289</v>
+        <v>141.6483738620687</v>
       </c>
       <c r="AD3" t="n">
-        <v>104357.8019672698</v>
+        <v>114448.4593196808</v>
       </c>
       <c r="AE3" t="n">
-        <v>142786.948592851</v>
+        <v>156593.4311507969</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.38145765562813e-06</v>
+        <v>1.105135098265095e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.284722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>129159.5626219289</v>
+        <v>141648.3738620687</v>
       </c>
     </row>
     <row r="4">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.18840072199384</v>
+        <v>96.28419555514222</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.2443310628095</v>
+        <v>131.7402841174068</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.29539841403881</v>
+        <v>119.1671762999266</v>
       </c>
       <c r="AD4" t="n">
-        <v>76188.40072199385</v>
+        <v>96284.19555514221</v>
       </c>
       <c r="AE4" t="n">
-        <v>104244.3310628095</v>
+        <v>131740.2841174068</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.523132650657734e-06</v>
+        <v>1.302849347251152e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.786111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>94295.39841403882</v>
+        <v>119167.1762999266</v>
       </c>
     </row>
     <row r="5">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.95962584152215</v>
+        <v>80.13553453995378</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.72184647719868</v>
+        <v>109.6449736877938</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.58628779589375</v>
+        <v>99.18061128674583</v>
       </c>
       <c r="AD5" t="n">
-        <v>69959.62584152215</v>
+        <v>80135.53453995378</v>
       </c>
       <c r="AE5" t="n">
-        <v>95721.84647719868</v>
+        <v>109644.9736877938</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.997007004179605e-06</v>
+        <v>1.384914481661756e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.620833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>86586.28779589375</v>
+        <v>99180.61128674583</v>
       </c>
     </row>
     <row r="6">
@@ -4546,28 +4546,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.11033051300132</v>
+        <v>77.28623921143293</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.82331490668014</v>
+        <v>105.7464421172752</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.05982660684083</v>
+        <v>95.65415009769291</v>
       </c>
       <c r="AD6" t="n">
-        <v>67110.33051300132</v>
+        <v>77286.23921143293</v>
       </c>
       <c r="AE6" t="n">
-        <v>91823.31490668014</v>
+        <v>105746.4421172752</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.17055971327201e-06</v>
+        <v>1.414970183754812e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.565277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>83059.82660684083</v>
+        <v>95654.15009769291</v>
       </c>
     </row>
     <row r="7">
@@ -4652,28 +4652,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.81731366653422</v>
+        <v>75.99322236496583</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.05415221346743</v>
+        <v>103.9772794240625</v>
       </c>
       <c r="AC7" t="n">
-        <v>81.45951031803233</v>
+        <v>94.05383380888442</v>
       </c>
       <c r="AD7" t="n">
-        <v>65817.31366653422</v>
+        <v>75993.22236496583</v>
       </c>
       <c r="AE7" t="n">
-        <v>90054.15221346743</v>
+        <v>103977.2794240625</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.239377135312129e-06</v>
+        <v>1.426887923019536e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.544444444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>81459.51031803233</v>
+        <v>94053.83380888442</v>
       </c>
     </row>
     <row r="8">
@@ -4758,28 +4758,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.01844866553427</v>
+        <v>76.19435736396589</v>
       </c>
       <c r="AB8" t="n">
-        <v>90.32935399254906</v>
+        <v>104.2524812031441</v>
       </c>
       <c r="AC8" t="n">
-        <v>81.70844722556662</v>
+        <v>94.30277071641872</v>
       </c>
       <c r="AD8" t="n">
-        <v>66018.44866553426</v>
+        <v>76194.35736396589</v>
       </c>
       <c r="AE8" t="n">
-        <v>90329.35399254906</v>
+        <v>104252.4812031441</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.235302419533438e-06</v>
+        <v>1.426182267405178e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.545833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>81708.44722556662</v>
+        <v>94302.77071641872</v>
       </c>
     </row>
   </sheetData>
@@ -5055,28 +5055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.30711333085125</v>
+        <v>83.42256845211756</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6702706577074</v>
+        <v>114.1424385001157</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.9670027212824</v>
+        <v>103.2488443696127</v>
       </c>
       <c r="AD2" t="n">
-        <v>74307.11333085125</v>
+        <v>83422.56845211756</v>
       </c>
       <c r="AE2" t="n">
-        <v>101670.2706577074</v>
+        <v>114142.4385001157</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.702934526890291e-06</v>
+        <v>1.457560971719695e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.036111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>91967.00272128239</v>
+        <v>103248.8443696127</v>
       </c>
     </row>
     <row r="3">
@@ -5161,28 +5161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.24870583897369</v>
+        <v>73.39409620983255</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.59371672973558</v>
+        <v>100.4210403532577</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.37915850151458</v>
+        <v>90.83699720378317</v>
       </c>
       <c r="AD3" t="n">
-        <v>55248.70583897369</v>
+        <v>73394.09620983255</v>
       </c>
       <c r="AE3" t="n">
-        <v>75593.71672973558</v>
+        <v>100421.0403532577</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.759978819341218e-06</v>
+        <v>1.657576498357895e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.669444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>68379.15850151458</v>
+        <v>90836.99720378318</v>
       </c>
     </row>
   </sheetData>
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.31052099472244</v>
+        <v>118.3037825526671</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.8810360958939</v>
+        <v>161.8684544830231</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.9127407211702</v>
+        <v>146.4199563710108</v>
       </c>
       <c r="AD2" t="n">
-        <v>99310.52099472244</v>
+        <v>118303.7825526671</v>
       </c>
       <c r="AE2" t="n">
-        <v>135881.0360958939</v>
+        <v>161868.4544830231</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.243368381411214e-06</v>
+        <v>1.137406128877608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>122912.7407211702</v>
+        <v>146419.9563710107</v>
       </c>
     </row>
     <row r="3">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.32249594849561</v>
+        <v>82.23041665186865</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.6406325480589</v>
+        <v>112.5112838129904</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.37177217858439</v>
+        <v>101.7733647964862</v>
       </c>
       <c r="AD3" t="n">
-        <v>63322.49594849561</v>
+        <v>82230.41665186865</v>
       </c>
       <c r="AE3" t="n">
-        <v>86640.6325480589</v>
+        <v>112511.2838129904</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.24796746201966e-06</v>
+        <v>1.50260054652802e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.7125</v>
       </c>
       <c r="AH3" t="n">
-        <v>78371.77217858439</v>
+        <v>101773.3647964862</v>
       </c>
     </row>
     <row r="4">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.46879083931438</v>
+        <v>68.05076247285834</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.99957908732362</v>
+        <v>93.11005540308581</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.36453153936247</v>
+        <v>84.22376239622157</v>
       </c>
       <c r="AD4" t="n">
-        <v>58468.79083931438</v>
+        <v>68050.76247285833</v>
       </c>
       <c r="AE4" t="n">
-        <v>79999.57908732363</v>
+        <v>93110.0554030858</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.699537921148928e-06</v>
+        <v>1.584866877209858e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.572222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>72364.53153936248</v>
+        <v>84223.76239622157</v>
       </c>
     </row>
     <row r="5">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.14147408146173</v>
+        <v>67.72344571500568</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.55172985903364</v>
+        <v>92.66220617479583</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.95942441286002</v>
+        <v>83.81865526971909</v>
       </c>
       <c r="AD5" t="n">
-        <v>58141.47408146173</v>
+        <v>67723.44571500568</v>
       </c>
       <c r="AE5" t="n">
-        <v>79551.72985903364</v>
+        <v>92662.20617479582</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.760917994259257e-06</v>
+        <v>1.596048993510172e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.554166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>71959.42441286001</v>
+        <v>83818.65526971909</v>
       </c>
     </row>
   </sheetData>
@@ -6073,28 +6073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.66504909381943</v>
+        <v>73.1850081733822</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.16337593878332</v>
+        <v>100.1349568774733</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.8944502351727</v>
+        <v>90.57821713340689</v>
       </c>
       <c r="AD2" t="n">
-        <v>55665.04909381943</v>
+        <v>73185.0081733822</v>
       </c>
       <c r="AE2" t="n">
-        <v>76163.37593878331</v>
+        <v>100134.9568774733</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.322656003422713e-06</v>
+        <v>1.630972420305196e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.918055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>68894.4502351727</v>
+        <v>90578.2171334069</v>
       </c>
     </row>
     <row r="3">
@@ -6179,28 +6179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.02271488049152</v>
+        <v>69.54267396005429</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.17977357966589</v>
+        <v>95.15135451835586</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.38647589067801</v>
+        <v>86.07024278891221</v>
       </c>
       <c r="AD3" t="n">
-        <v>52022.71488049152</v>
+        <v>69542.67396005429</v>
       </c>
       <c r="AE3" t="n">
-        <v>71179.7735796659</v>
+        <v>95151.35451835586</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.860639651271413e-06</v>
+        <v>1.736399881425248e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.741666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>64386.47589067802</v>
+        <v>86070.2427889122</v>
       </c>
     </row>
   </sheetData>
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.6540917040062</v>
+        <v>229.0055941925891</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.489733438147</v>
+        <v>313.3355569879353</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.2429939662517</v>
+        <v>283.4312511983159</v>
       </c>
       <c r="AD2" t="n">
-        <v>208654.0917040062</v>
+        <v>229005.5941925891</v>
       </c>
       <c r="AE2" t="n">
-        <v>285489.733438147</v>
+        <v>313335.5569879353</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.04499264711277e-06</v>
+        <v>6.959333832980964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.134722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>258242.9939662517</v>
+        <v>283431.2511983159</v>
       </c>
     </row>
     <row r="3">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.3700364439025</v>
+        <v>130.5508572233422</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.0131530448412</v>
+        <v>178.6254423502342</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.6006696665742</v>
+        <v>161.5776808347607</v>
       </c>
       <c r="AD3" t="n">
-        <v>110370.0364439025</v>
+        <v>130550.8572233422</v>
       </c>
       <c r="AE3" t="n">
-        <v>151013.1530448412</v>
+        <v>178625.4423502342</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.134790852322661e-06</v>
+        <v>1.055479237207151e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.386111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>136600.6696665742</v>
+        <v>161577.6808347607</v>
       </c>
     </row>
     <row r="4">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.07875011194618</v>
+        <v>98.34482223740645</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.8307904944703</v>
+        <v>134.5597244525126</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.63500978766132</v>
+        <v>121.7175332065601</v>
       </c>
       <c r="AD4" t="n">
-        <v>78078.75011194618</v>
+        <v>98344.82223740645</v>
       </c>
       <c r="AE4" t="n">
-        <v>106830.7904944703</v>
+        <v>134559.7244525126</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.422201068485743e-06</v>
+        <v>1.276975745505236e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.798611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>96635.00978766131</v>
+        <v>121717.5332065601</v>
       </c>
     </row>
     <row r="5">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.24538332607428</v>
+        <v>93.51145545153453</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.2175648249503</v>
+        <v>127.9464987829926</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.65294109431768</v>
+        <v>115.7354645132165</v>
       </c>
       <c r="AD5" t="n">
-        <v>73245.38332607427</v>
+        <v>93511.45545153454</v>
       </c>
       <c r="AE5" t="n">
-        <v>100217.5648249503</v>
+        <v>127946.4987829926</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.787126826784758e-06</v>
+        <v>1.339760536426162e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.668055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>90652.94109431768</v>
+        <v>115735.4645132165</v>
       </c>
     </row>
     <row r="6">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.67390335456427</v>
+        <v>79.93495069915184</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.33090836535662</v>
+        <v>109.3705260276742</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.23266026876068</v>
+        <v>98.93235652611827</v>
       </c>
       <c r="AD6" t="n">
-        <v>69673.90335456427</v>
+        <v>79934.95069915184</v>
       </c>
       <c r="AE6" t="n">
-        <v>95330.90836535662</v>
+        <v>109370.5260276742</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.028815361789352e-06</v>
+        <v>1.381342594675431e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.5875</v>
       </c>
       <c r="AH6" t="n">
-        <v>86232.66026876068</v>
+        <v>98932.35652611827</v>
       </c>
     </row>
     <row r="7">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.60030121947997</v>
+        <v>76.86134856406754</v>
       </c>
       <c r="AB7" t="n">
-        <v>91.12547032638017</v>
+        <v>105.1650879886977</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.42858333385345</v>
+        <v>95.12827959121105</v>
       </c>
       <c r="AD7" t="n">
-        <v>66600.30121947997</v>
+        <v>76861.34856406754</v>
       </c>
       <c r="AE7" t="n">
-        <v>91125.47032638016</v>
+        <v>105165.0879886977</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.224289938058537e-06</v>
+        <v>1.414973628172828e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.526388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>82428.58333385346</v>
+        <v>95128.27959121106</v>
       </c>
     </row>
     <row r="8">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.76595811579659</v>
+        <v>77.02700546038417</v>
       </c>
       <c r="AB8" t="n">
-        <v>91.35212940018697</v>
+        <v>105.3917470625045</v>
       </c>
       <c r="AC8" t="n">
-        <v>82.63361038377418</v>
+        <v>95.3333066411318</v>
       </c>
       <c r="AD8" t="n">
-        <v>66765.95811579659</v>
+        <v>77027.00546038417</v>
       </c>
       <c r="AE8" t="n">
-        <v>91352.12940018697</v>
+        <v>105391.7470625045</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.196920506186111e-06</v>
+        <v>1.410264768853759e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.534722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>82633.61038377418</v>
+        <v>95333.3066411318</v>
       </c>
     </row>
   </sheetData>
@@ -7409,28 +7409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.60483250927321</v>
+        <v>67.75444262054391</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.2397643668105</v>
+        <v>92.70461750844017</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.63161843427689</v>
+        <v>83.85701892520511</v>
       </c>
       <c r="AD2" t="n">
-        <v>50604.83250927321</v>
+        <v>67754.44262054391</v>
       </c>
       <c r="AE2" t="n">
-        <v>69239.7643668105</v>
+        <v>92704.61750844016</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.727563958209531e-06</v>
+        <v>1.749580165131841e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.848611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>62631.6184342769</v>
+        <v>83857.01892520511</v>
       </c>
     </row>
     <row r="3">
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.9514004878551</v>
+        <v>68.1010105991258</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.71395396460613</v>
+        <v>93.17880710623581</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.06055204238835</v>
+        <v>84.28595253331656</v>
       </c>
       <c r="AD3" t="n">
-        <v>50951.4004878551</v>
+        <v>68101.0105991258</v>
       </c>
       <c r="AE3" t="n">
-        <v>69713.95396460613</v>
+        <v>93178.80710623581</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.720583482124748e-06</v>
+        <v>1.74818081675014e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>63060.55204238835</v>
+        <v>84285.95253331657</v>
       </c>
     </row>
   </sheetData>
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.814198336059</v>
+        <v>158.3574504786681</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.9317102135287</v>
+        <v>216.6716499824674</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.8048943616326</v>
+        <v>195.9928118087735</v>
       </c>
       <c r="AD2" t="n">
-        <v>138814.198336059</v>
+        <v>158357.4504786681</v>
       </c>
       <c r="AE2" t="n">
-        <v>189931.7102135287</v>
+        <v>216671.6499824674</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.206881095228256e-06</v>
+        <v>9.221773326841427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.147222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>171804.8943616326</v>
+        <v>195992.8118087735</v>
       </c>
     </row>
     <row r="3">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.16851240031151</v>
+        <v>96.71167503436953</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.5853631005586</v>
+        <v>132.325180399949</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.5084442362559</v>
+        <v>119.6962509021702</v>
       </c>
       <c r="AD3" t="n">
-        <v>77168.51240031152</v>
+        <v>96711.67503436953</v>
       </c>
       <c r="AE3" t="n">
-        <v>105585.3631005586</v>
+        <v>132325.180399949</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.271005876162799e-06</v>
+        <v>1.287749169258992e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.969444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>95508.44423625589</v>
+        <v>119696.2509021702</v>
       </c>
     </row>
     <row r="4">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.62180664577704</v>
+        <v>87.16496927983506</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.52313911627797</v>
+        <v>119.2629564156683</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.69286057608431</v>
+        <v>107.8806672419986</v>
       </c>
       <c r="AD4" t="n">
-        <v>67621.80664577705</v>
+        <v>87164.96927983506</v>
       </c>
       <c r="AE4" t="n">
-        <v>92523.13911627798</v>
+        <v>119262.9564156683</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.040057564788205e-06</v>
+        <v>1.423953937899234e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.686111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>83692.86057608432</v>
+        <v>107880.6672419986</v>
       </c>
     </row>
     <row r="5">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.37834162245086</v>
+        <v>72.27793422133729</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.34879894601599</v>
+        <v>98.89385827900757</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.20322936242017</v>
+        <v>89.45556724328553</v>
       </c>
       <c r="AD5" t="n">
-        <v>62378.34162245086</v>
+        <v>72277.93422133729</v>
       </c>
       <c r="AE5" t="n">
-        <v>85348.79894601599</v>
+        <v>98893.85827900757</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.460035043756507e-06</v>
+        <v>1.498335070146968e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.552777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>77203.22936242017</v>
+        <v>89455.56724328554</v>
       </c>
     </row>
     <row r="6">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.46122923889744</v>
+        <v>72.36082183778387</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.4622094395817</v>
+        <v>99.00726877257328</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.30581611765264</v>
+        <v>89.55815399851799</v>
       </c>
       <c r="AD6" t="n">
-        <v>62461.22923889744</v>
+        <v>72360.82183778388</v>
       </c>
       <c r="AE6" t="n">
-        <v>85462.2094395817</v>
+        <v>99007.26877257328</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.449306259584418e-06</v>
+        <v>1.496434922747822e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>77305.81611765263</v>
+        <v>89558.153998518</v>
       </c>
     </row>
   </sheetData>
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.5302499632294</v>
+        <v>184.619974205452</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.1175465619335</v>
+        <v>252.6051935662107</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.6326438725883</v>
+        <v>228.4969084259408</v>
       </c>
       <c r="AD2" t="n">
-        <v>164530.2499632293</v>
+        <v>184619.974205452</v>
       </c>
       <c r="AE2" t="n">
-        <v>225117.5465619335</v>
+        <v>252605.1935662107</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.606877028858593e-06</v>
+        <v>8.033991269492651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.593055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>203632.6438725883</v>
+        <v>228496.9084259408</v>
       </c>
     </row>
     <row r="3">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.62955874497327</v>
+        <v>108.6318399473498</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.9493135038534</v>
+        <v>148.6348759144416</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.0699404256328</v>
+        <v>134.4493719675662</v>
       </c>
       <c r="AD3" t="n">
-        <v>98629.55874497327</v>
+        <v>108631.8399473498</v>
       </c>
       <c r="AE3" t="n">
-        <v>134949.3135038534</v>
+        <v>148634.8759144416</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.641038941928467e-06</v>
+        <v>1.158139202448673e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.186111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>122069.9404256328</v>
+        <v>134449.3719675662</v>
       </c>
     </row>
     <row r="4">
@@ -8745,28 +8745,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.50515064977657</v>
+        <v>95.42419318285596</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.3094781711365</v>
+        <v>130.5635909310184</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.44976657027249</v>
+        <v>118.1027850597475</v>
       </c>
       <c r="AD4" t="n">
-        <v>75505.15064977657</v>
+        <v>95424.19318285596</v>
       </c>
       <c r="AE4" t="n">
-        <v>103309.4781711365</v>
+        <v>130563.5909310184</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.522224719729258e-06</v>
+        <v>1.31181030765303e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>93449.76657027249</v>
+        <v>118102.7850597475</v>
       </c>
     </row>
     <row r="5">
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.38922341413554</v>
+        <v>89.30826594721493</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.94139671166963</v>
+        <v>122.1955094715515</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.88032306061841</v>
+        <v>110.5333415500934</v>
       </c>
       <c r="AD5" t="n">
-        <v>69389.22341413554</v>
+        <v>89308.26594721494</v>
       </c>
       <c r="AE5" t="n">
-        <v>94941.39671166963</v>
+        <v>122195.5094715515</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.965559888021149e-06</v>
+        <v>1.38912408983572e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.656944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>85880.32306061841</v>
+        <v>110533.3415500933</v>
       </c>
     </row>
     <row r="6">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.62174071357876</v>
+        <v>75.70927326197589</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.78656067116415</v>
+        <v>103.5887677344016</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.21745733695931</v>
+        <v>93.70240112960499</v>
       </c>
       <c r="AD6" t="n">
-        <v>65621.74071357877</v>
+        <v>75709.27326197589</v>
       </c>
       <c r="AE6" t="n">
-        <v>89786.56067116416</v>
+        <v>103588.7677344016</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.220439522575217e-06</v>
+        <v>1.433572872513259e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.573611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>81217.45733695931</v>
+        <v>93702.40112960499</v>
       </c>
     </row>
     <row r="7">
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.61060090592321</v>
+        <v>74.69813345432034</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.40307457799051</v>
+        <v>102.2052816412279</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.9660092147828</v>
+        <v>92.45095300742847</v>
       </c>
       <c r="AD7" t="n">
-        <v>64610.60090592321</v>
+        <v>74698.13345432034</v>
       </c>
       <c r="AE7" t="n">
-        <v>88403.07457799051</v>
+        <v>102205.2816412279</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.327997814263903e-06</v>
+        <v>1.452330099393321e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.540277777777777</v>
       </c>
       <c r="AH7" t="n">
-        <v>79966.0092147828</v>
+        <v>92450.95300742847</v>
       </c>
     </row>
   </sheetData>
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.297835777144</v>
+        <v>284.3101117486952</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.5732736219687</v>
+        <v>389.0056377714644</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.4968068062359</v>
+        <v>351.8794856753967</v>
       </c>
       <c r="AD2" t="n">
-        <v>253297.835777144</v>
+        <v>284310.1117486953</v>
       </c>
       <c r="AE2" t="n">
-        <v>346573.2736219688</v>
+        <v>389005.6377714644</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.533773758063125e-06</v>
+        <v>6.007181182979257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.779166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>313496.8068062359</v>
+        <v>351879.4856753967</v>
       </c>
     </row>
     <row r="3">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.4722029508316</v>
+        <v>132.9764613979378</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.889430000661</v>
+        <v>181.944260992018</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.2024387866115</v>
+        <v>164.5797560833649</v>
       </c>
       <c r="AD3" t="n">
-        <v>112472.2029508316</v>
+        <v>132976.4613979378</v>
       </c>
       <c r="AE3" t="n">
-        <v>153889.430000661</v>
+        <v>181944.260992018</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.075690997540435e-06</v>
+        <v>1.032827202102093e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.361111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>139202.4387866115</v>
+        <v>164579.7560833649</v>
       </c>
     </row>
     <row r="4">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.57025642816977</v>
+        <v>106.1597662212966</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.0809999382553</v>
+        <v>145.2524755822616</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.906953628394</v>
+        <v>131.3897831758597</v>
       </c>
       <c r="AD4" t="n">
-        <v>85570.25642816977</v>
+        <v>106159.7662212966</v>
       </c>
       <c r="AE4" t="n">
-        <v>117080.9999382553</v>
+        <v>145252.4755822615</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.000198326280098e-06</v>
+        <v>1.189987320688047e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.918055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>105906.953628394</v>
+        <v>131389.7831758597</v>
       </c>
     </row>
     <row r="5">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.70870731973758</v>
+        <v>100.2982171128644</v>
       </c>
       <c r="AB5" t="n">
-        <v>109.0609698548063</v>
+        <v>137.2324454988126</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.65234395992398</v>
+        <v>124.1351735073897</v>
       </c>
       <c r="AD5" t="n">
-        <v>79708.70731973759</v>
+        <v>100298.2171128644</v>
       </c>
       <c r="AE5" t="n">
-        <v>109060.9698548063</v>
+        <v>137232.4454988126</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.399146693207203e-06</v>
+        <v>1.257805898980348e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.759722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>98652.34395992398</v>
+        <v>124135.1735073897</v>
       </c>
     </row>
     <row r="6">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>76.4773244131289</v>
+        <v>97.06683420625572</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.639649203434</v>
+        <v>132.8111248474402</v>
       </c>
       <c r="AC6" t="n">
-        <v>94.6529879461547</v>
+        <v>120.1358174936204</v>
       </c>
       <c r="AD6" t="n">
-        <v>76477.3244131289</v>
+        <v>97066.83420625572</v>
       </c>
       <c r="AE6" t="n">
-        <v>104639.649203434</v>
+        <v>132811.1248474402</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.600753110847108e-06</v>
+        <v>1.292077653804802e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>94652.9879461547</v>
+        <v>120135.8174936204</v>
       </c>
     </row>
     <row r="7">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.94940611926822</v>
+        <v>83.37217229768905</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.81259575300562</v>
+        <v>114.0734842583052</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.28662170222162</v>
+        <v>103.1864710238627</v>
       </c>
       <c r="AD7" t="n">
-        <v>72949.40611926821</v>
+        <v>83372.17229768905</v>
       </c>
       <c r="AE7" t="n">
-        <v>99812.59575300562</v>
+        <v>114073.4842583052</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.820005604429237e-06</v>
+        <v>1.329349124587633e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.611111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>90286.62170222163</v>
+        <v>103186.4710238627</v>
       </c>
     </row>
     <row r="8">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>70.40251402346338</v>
+        <v>80.82528020188424</v>
       </c>
       <c r="AB8" t="n">
-        <v>96.327825626578</v>
+        <v>110.5887141318776</v>
       </c>
       <c r="AC8" t="n">
-        <v>87.13443314575358</v>
+        <v>100.0342824673946</v>
       </c>
       <c r="AD8" t="n">
-        <v>70402.51402346339</v>
+        <v>80825.28020188423</v>
       </c>
       <c r="AE8" t="n">
-        <v>96327.82562657801</v>
+        <v>110588.7141318776</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.955733338551506e-06</v>
+        <v>1.352421939834147e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.566666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>87134.43314575357</v>
+        <v>100034.2824673946</v>
       </c>
     </row>
     <row r="9">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>69.51075484207688</v>
+        <v>79.93352102049772</v>
       </c>
       <c r="AB9" t="n">
-        <v>95.10768137296708</v>
+        <v>109.3685698782667</v>
       </c>
       <c r="AC9" t="n">
-        <v>86.03073774722367</v>
+        <v>98.93058706886471</v>
       </c>
       <c r="AD9" t="n">
-        <v>69510.75484207687</v>
+        <v>79933.52102049772</v>
       </c>
       <c r="AE9" t="n">
-        <v>95107.68137296708</v>
+        <v>109368.5698782667</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.025876490421846e-06</v>
+        <v>1.364345810768694e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.544444444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>86030.73774722367</v>
+        <v>98930.58706886471</v>
       </c>
     </row>
   </sheetData>
@@ -10399,28 +10399,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.0655555878352</v>
+        <v>127.2818483101429</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.8600606710513</v>
+        <v>174.1526401367023</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.7485040035449</v>
+        <v>157.5317565868696</v>
       </c>
       <c r="AD2" t="n">
-        <v>108065.5555878352</v>
+        <v>127281.8483101429</v>
       </c>
       <c r="AE2" t="n">
-        <v>147860.0606710513</v>
+        <v>174152.6401367023</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.884760984373196e-06</v>
+        <v>1.061161662432565e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.754166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133748.5040035449</v>
+        <v>157531.7565868696</v>
       </c>
     </row>
     <row r="3">
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.94110109388271</v>
+        <v>87.07205296161881</v>
       </c>
       <c r="AB3" t="n">
-        <v>92.96001186645282</v>
+        <v>119.1358242099062</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.08803880413737</v>
+        <v>107.7656683555233</v>
       </c>
       <c r="AD3" t="n">
-        <v>67941.10109388271</v>
+        <v>87072.05296161881</v>
       </c>
       <c r="AE3" t="n">
-        <v>92960.01186645281</v>
+        <v>119135.8242099062</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.888452817472608e-06</v>
+        <v>1.4224747152924e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.801388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>84088.03880413737</v>
+        <v>107765.6683555233</v>
       </c>
     </row>
     <row r="4">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.10160415555648</v>
+        <v>69.79509137128197</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.23366630124453</v>
+        <v>95.49672315626766</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.38540060514856</v>
+        <v>86.38264992874973</v>
       </c>
       <c r="AD4" t="n">
-        <v>60101.60415555648</v>
+        <v>69795.09137128197</v>
       </c>
       <c r="AE4" t="n">
-        <v>82233.66630124452</v>
+        <v>95496.72315626766</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.60450021253259e-06</v>
+        <v>1.551595005163152e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.568055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>74385.40060514856</v>
+        <v>86382.64992874973</v>
       </c>
     </row>
     <row r="5">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.65469900451195</v>
+        <v>69.34818622023744</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.62219095752192</v>
+        <v>94.88524781254505</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.83228361001963</v>
+        <v>85.8295329336208</v>
       </c>
       <c r="AD5" t="n">
-        <v>59654.69900451195</v>
+        <v>69348.18622023743</v>
       </c>
       <c r="AE5" t="n">
-        <v>81622.19095752192</v>
+        <v>94885.24781254504</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.635681125536758e-06</v>
+        <v>1.557217661642749e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.558333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>73832.28361001963</v>
+        <v>85829.53293362079</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.82187678098194</v>
+        <v>90.0736867890091</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.5840574212507</v>
+        <v>123.2427920352781</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.0300701866942</v>
+        <v>111.4806729358085</v>
       </c>
       <c r="AD2" t="n">
-        <v>80821.87678098194</v>
+        <v>90073.68678900911</v>
       </c>
       <c r="AE2" t="n">
-        <v>110584.0574212507</v>
+        <v>123242.7920352781</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.260644895084751e-06</v>
+        <v>1.354604256181503e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.169444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>100030.0701866942</v>
+        <v>111480.6729358085</v>
       </c>
     </row>
     <row r="3">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.22797723281199</v>
+        <v>75.64607737719261</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.301843170075</v>
+        <v>103.5023003368355</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.82882515526821</v>
+        <v>93.62418605910483</v>
       </c>
       <c r="AD3" t="n">
-        <v>57227.97723281199</v>
+        <v>75646.07737719262</v>
       </c>
       <c r="AE3" t="n">
-        <v>78301.84317007501</v>
+        <v>103502.3003368355</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.655138134509093e-06</v>
+        <v>1.614772120694384e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.659722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>70828.8251552682</v>
+        <v>93624.18605910483</v>
       </c>
     </row>
     <row r="4">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.24276662912486</v>
+        <v>65.57982798317261</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.95383455768669</v>
+        <v>89.72921382436334</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.60946859290382</v>
+        <v>81.16558359273034</v>
       </c>
       <c r="AD4" t="n">
-        <v>56242.76662912486</v>
+        <v>65579.82798317261</v>
       </c>
       <c r="AE4" t="n">
-        <v>76953.83455768669</v>
+        <v>89729.21382436334</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.785058835603412e-06</v>
+        <v>1.639011170697723e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.619444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>69609.46859290382</v>
+        <v>81165.58359273034</v>
       </c>
     </row>
   </sheetData>
@@ -19816,28 +19816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.65482329953639</v>
+        <v>79.62173545458002</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.67304630920059</v>
+        <v>108.9419711119699</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.446706450947</v>
+        <v>98.54470229008803</v>
       </c>
       <c r="AD2" t="n">
-        <v>70654.82329953639</v>
+        <v>79621.73545458002</v>
       </c>
       <c r="AE2" t="n">
-        <v>96673.04630920058</v>
+        <v>108941.9711119699</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.886908701535046e-06</v>
+        <v>1.516681790808059e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.019444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>87446.70645094701</v>
+        <v>98544.70229008803</v>
       </c>
     </row>
     <row r="3">
@@ -19922,28 +19922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.41618640583233</v>
+        <v>71.26449084424587</v>
       </c>
       <c r="AB3" t="n">
-        <v>73.08638279626122</v>
+        <v>97.50722034050546</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.11112099958494</v>
+        <v>88.20126808347503</v>
       </c>
       <c r="AD3" t="n">
-        <v>53416.18640583233</v>
+        <v>71264.49084424587</v>
       </c>
       <c r="AE3" t="n">
-        <v>73086.38279626121</v>
+        <v>97507.22034050546</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.86282965523525e-06</v>
+        <v>1.704355009271593e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.686111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>66111.12099958493</v>
+        <v>88201.26808347504</v>
       </c>
     </row>
   </sheetData>
@@ -20219,28 +20219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.69885042156216</v>
+        <v>66.10100668021572</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.94611264038163</v>
+        <v>90.44231351043875</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.41160645156685</v>
+        <v>81.81062604560863</v>
       </c>
       <c r="AD2" t="n">
-        <v>57698.85042156216</v>
+        <v>66101.00668021572</v>
       </c>
       <c r="AE2" t="n">
-        <v>78946.11264038163</v>
+        <v>90442.31351043875</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.467450834964208e-06</v>
+        <v>1.746495834586956e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.018055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>71411.60645156685</v>
+        <v>81810.62604560863</v>
       </c>
     </row>
   </sheetData>
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.1844666352524</v>
+        <v>170.9196672296064</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.8572570381978</v>
+        <v>233.8598291469817</v>
       </c>
       <c r="AC2" t="n">
-        <v>187.1150907525148</v>
+        <v>211.540575277593</v>
       </c>
       <c r="AD2" t="n">
-        <v>151184.4666352524</v>
+        <v>170919.6672296064</v>
       </c>
       <c r="AE2" t="n">
-        <v>206857.2570381978</v>
+        <v>233859.8291469817</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.893673048131564e-06</v>
+        <v>8.59799050105027e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.366666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>187115.0907525148</v>
+        <v>211540.575277593</v>
       </c>
     </row>
     <row r="3">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.98689891105462</v>
+        <v>101.8972143897929</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.8605332656213</v>
+        <v>139.4202641158863</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.8485806171515</v>
+        <v>126.1141897862732</v>
       </c>
       <c r="AD3" t="n">
-        <v>91986.89891105462</v>
+        <v>101897.2143897929</v>
       </c>
       <c r="AE3" t="n">
-        <v>125860.5332656213</v>
+        <v>139420.2641158863</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.993071710837734e-06</v>
+        <v>1.22865511348174e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>113848.5806171515</v>
+        <v>126114.1897862732</v>
       </c>
     </row>
     <row r="4">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.40959964636207</v>
+        <v>92.14471073216497</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.07400872219499</v>
+        <v>126.0764583614305</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.61852438101792</v>
+        <v>114.0438981248695</v>
       </c>
       <c r="AD4" t="n">
-        <v>72409.59964636207</v>
+        <v>92144.71073216497</v>
       </c>
       <c r="AE4" t="n">
-        <v>99074.00872219499</v>
+        <v>126076.4583614305</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.69641026897537e-06</v>
+        <v>1.352228923632353e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.776388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>89618.52438101792</v>
+        <v>114043.8981248695</v>
       </c>
     </row>
     <row r="5">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.69680136091951</v>
+        <v>75.69236818567838</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.88926196029776</v>
+        <v>103.565637463212</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.31035695920022</v>
+        <v>93.68147837903422</v>
       </c>
       <c r="AD5" t="n">
-        <v>65696.8013609195</v>
+        <v>75692.36818567838</v>
       </c>
       <c r="AE5" t="n">
-        <v>89889.26196029776</v>
+        <v>103565.637463212</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.22018284650775e-06</v>
+        <v>1.444253699338475e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AH5" t="n">
-        <v>81310.35695920022</v>
+        <v>93681.47837903422</v>
       </c>
     </row>
     <row r="6">
@@ -20940,28 +20940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.36290798195915</v>
+        <v>73.35847480671804</v>
       </c>
       <c r="AB6" t="n">
-        <v>86.69592607509679</v>
+        <v>100.372301578011</v>
       </c>
       <c r="AC6" t="n">
-        <v>78.42178856900674</v>
+        <v>90.79290998884073</v>
       </c>
       <c r="AD6" t="n">
-        <v>63362.90798195915</v>
+        <v>73358.47480671803</v>
       </c>
       <c r="AE6" t="n">
-        <v>86695.9260750968</v>
+        <v>100372.301578011</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.40174913366645e-06</v>
+        <v>1.476154179753641e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.543055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>78421.78856900673</v>
+        <v>90792.90998884074</v>
       </c>
     </row>
   </sheetData>
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.0554914488525</v>
+        <v>259.6586195655098</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.4038286152664</v>
+        <v>355.2763786193502</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.4930070773543</v>
+        <v>321.3692996774477</v>
       </c>
       <c r="AD2" t="n">
-        <v>229055.4914488525</v>
+        <v>259658.6195655098</v>
       </c>
       <c r="AE2" t="n">
-        <v>313403.8286152664</v>
+        <v>355276.3786193501</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.787208708029181e-06</v>
+        <v>6.475704835119136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>283493.0070773543</v>
+        <v>321369.2996774477</v>
       </c>
     </row>
     <row r="3">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.8094409790923</v>
+        <v>131.1546623233309</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.6143657150475</v>
+        <v>179.4515951260393</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.1445034433434</v>
+        <v>162.324986749156</v>
       </c>
       <c r="AD3" t="n">
-        <v>110809.4409790923</v>
+        <v>131154.6623233309</v>
       </c>
       <c r="AE3" t="n">
-        <v>151614.3657150475</v>
+        <v>179451.5951260393</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.132899795689569e-06</v>
+        <v>1.048657518558444e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.358333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>137144.5034433434</v>
+        <v>162324.986749156</v>
       </c>
     </row>
     <row r="4">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.25233541555203</v>
+        <v>101.6828081058112</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.1730299155639</v>
+        <v>139.126903979205</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.5628319727785</v>
+        <v>125.8488275293032</v>
       </c>
       <c r="AD4" t="n">
-        <v>81252.33541555202</v>
+        <v>101682.8081058112</v>
       </c>
       <c r="AE4" t="n">
-        <v>111173.0299155639</v>
+        <v>139126.903979205</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.245101366393778e-06</v>
+        <v>1.238831592508129e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.843055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>100562.8319727785</v>
+        <v>125848.8275293032</v>
       </c>
     </row>
     <row r="5">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.51099151404124</v>
+        <v>96.94146420430049</v>
       </c>
       <c r="AB5" t="n">
-        <v>104.6857140161899</v>
+        <v>132.639588079831</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.69465639783358</v>
+        <v>119.9806519543584</v>
       </c>
       <c r="AD5" t="n">
-        <v>76510.99151404123</v>
+        <v>96941.46420430049</v>
       </c>
       <c r="AE5" t="n">
-        <v>104685.7140161899</v>
+        <v>132639.588079831</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.5899861622154e-06</v>
+        <v>1.297803049114844e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.713888888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>94694.65639783358</v>
+        <v>119980.6519543584</v>
       </c>
     </row>
     <row r="6">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.83551822243949</v>
+        <v>83.17876584942654</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.65676930818523</v>
+        <v>113.8088570233023</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.14566711459108</v>
+        <v>102.9470994407617</v>
       </c>
       <c r="AD6" t="n">
-        <v>72835.5182224395</v>
+        <v>83178.76584942653</v>
       </c>
       <c r="AE6" t="n">
-        <v>99656.76930818523</v>
+        <v>113808.8570233022</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.830189674352557e-06</v>
+        <v>1.338875172804817e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.630555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>90145.66711459108</v>
+        <v>102947.0994407617</v>
       </c>
     </row>
     <row r="7">
@@ -21767,28 +21767,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.53369511723801</v>
+        <v>79.87694274422505</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.13906926949605</v>
+        <v>109.291156984613</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.05913002696113</v>
+        <v>98.86056235313171</v>
       </c>
       <c r="AD7" t="n">
-        <v>69533.69511723801</v>
+        <v>79876.94274422505</v>
       </c>
       <c r="AE7" t="n">
-        <v>95139.06926949605</v>
+        <v>109291.156984613</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.037328135127625e-06</v>
+        <v>1.374293541196727e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.5625</v>
       </c>
       <c r="AH7" t="n">
-        <v>86059.13002696112</v>
+        <v>98860.56235313171</v>
       </c>
     </row>
     <row r="8">
@@ -21873,28 +21873,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.19338898807176</v>
+        <v>78.53663661505878</v>
       </c>
       <c r="AB8" t="n">
-        <v>93.30520329343848</v>
+        <v>107.4572910085555</v>
       </c>
       <c r="AC8" t="n">
-        <v>84.40028564581083</v>
+        <v>97.20171797198141</v>
       </c>
       <c r="AD8" t="n">
-        <v>68193.38898807176</v>
+        <v>78536.63661505879</v>
       </c>
       <c r="AE8" t="n">
-        <v>93305.20329343848</v>
+        <v>107457.2910085555</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.094710085249278e-06</v>
+        <v>1.384105215189331e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.544444444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>84400.28564581083</v>
+        <v>97201.71797198142</v>
       </c>
     </row>
   </sheetData>
@@ -22170,28 +22170,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.30286268734603</v>
+        <v>72.40812742024812</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.03606063579583</v>
+        <v>99.07199435747586</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.68384712952327</v>
+        <v>89.61670226444039</v>
       </c>
       <c r="AD2" t="n">
-        <v>56302.86268734603</v>
+        <v>72408.12742024811</v>
       </c>
       <c r="AE2" t="n">
-        <v>77036.06063579583</v>
+        <v>99071.99435747587</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.784964882550391e-06</v>
+        <v>1.668676542387287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.398611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>69683.84712952327</v>
+        <v>89616.70226444039</v>
       </c>
     </row>
   </sheetData>
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.23129164166787</v>
+        <v>108.8171873912342</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.4584339477211</v>
+        <v>148.8884764641162</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.6757342867834</v>
+        <v>134.6787692367106</v>
       </c>
       <c r="AD2" t="n">
-        <v>90231.29164166786</v>
+        <v>108817.1873912342</v>
       </c>
       <c r="AE2" t="n">
-        <v>123458.4339477211</v>
+        <v>148888.4764641162</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.68761444309184e-06</v>
+        <v>1.2321478432184e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.391666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>111675.7342867834</v>
+        <v>134678.7692367106</v>
       </c>
     </row>
     <row r="3">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.94933243861797</v>
+        <v>78.62047953420489</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.02532142037529</v>
+        <v>107.5720085894196</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.19693986729555</v>
+        <v>97.30548706793508</v>
       </c>
       <c r="AD3" t="n">
-        <v>59949.33243861797</v>
+        <v>78620.47953420489</v>
       </c>
       <c r="AE3" t="n">
-        <v>82025.32142037529</v>
+        <v>107572.0085894196</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.500241608826204e-06</v>
+        <v>1.566112169634639e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.668055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>74196.93986729556</v>
+        <v>97305.48706793507</v>
       </c>
     </row>
     <row r="4">
@@ -22679,28 +22679,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.29813969316086</v>
+        <v>66.76172452281175</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.39784254367356</v>
+        <v>91.34633681149216</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.91566248338653</v>
+        <v>82.62837063161447</v>
       </c>
       <c r="AD4" t="n">
-        <v>57298.13969316086</v>
+        <v>66761.72452281175</v>
       </c>
       <c r="AE4" t="n">
-        <v>78397.84254367356</v>
+        <v>91346.33681149216</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.756622207943587e-06</v>
+        <v>1.613348565352972e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.590277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>70915.66248338652</v>
+        <v>82628.37063161447</v>
       </c>
     </row>
   </sheetData>
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.1803089866967</v>
+        <v>137.6078374685012</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.6995125027932</v>
+        <v>188.2811140536516</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.2671379762623</v>
+        <v>170.3118287826273</v>
       </c>
       <c r="AD2" t="n">
-        <v>118180.3089866967</v>
+        <v>137607.8374685012</v>
       </c>
       <c r="AE2" t="n">
-        <v>161699.5125027932</v>
+        <v>188281.1140536516</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.527948434715973e-06</v>
+        <v>9.875276458448215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.950000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>146267.1379762623</v>
+        <v>170311.8287826273</v>
       </c>
     </row>
     <row r="3">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.44543836128497</v>
+        <v>91.78762598851786</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.12304483304501</v>
+        <v>125.5878792617058</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.66288055427104</v>
+        <v>113.6019483286972</v>
       </c>
       <c r="AD3" t="n">
-        <v>72445.43836128498</v>
+        <v>91787.62598851786</v>
       </c>
       <c r="AE3" t="n">
-        <v>99123.04483304502</v>
+        <v>125587.8792617058</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.572786243075357e-06</v>
+        <v>1.352822997433495e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.883333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>89662.88055427105</v>
+        <v>113601.9483286972</v>
       </c>
     </row>
     <row r="4">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.99681809392486</v>
+        <v>73.79592318939874</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.56326985642824</v>
+        <v>100.970837754055</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.20635427717281</v>
+        <v>91.33432271229411</v>
       </c>
       <c r="AD4" t="n">
-        <v>63996.81809392486</v>
+        <v>73795.92318939873</v>
       </c>
       <c r="AE4" t="n">
-        <v>87563.26985642823</v>
+        <v>100970.837754055</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.310946592932908e-06</v>
+        <v>1.484689956968234e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.627777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>79206.35427717281</v>
+        <v>91334.32271229412</v>
       </c>
     </row>
     <row r="5">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.0872918038697</v>
+        <v>70.88639689934357</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.58232762713598</v>
+        <v>96.98989552476277</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.60534758695543</v>
+        <v>87.73331602207674</v>
       </c>
       <c r="AD5" t="n">
-        <v>61087.2918038697</v>
+        <v>70886.39689934357</v>
       </c>
       <c r="AE5" t="n">
-        <v>83582.32762713598</v>
+        <v>96989.89552476277</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.529486078833225e-06</v>
+        <v>1.523730441260734e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.559722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>75605.34758695544</v>
+        <v>87733.31602207673</v>
       </c>
     </row>
   </sheetData>
